--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.86009999999998</v>
+        <v>-20.65879999999997</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.77800000000002</v>
+        <v>-22.71320000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-22.0132</v>
+        <v>-22.01550000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>4.787400000000002</v>
+        <v>4.868900000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.691700000000001</v>
+        <v>4.641</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.07400000000002</v>
+        <v>18.39320000000003</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.393599999999998</v>
+        <v>-8.511299999999999</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.235700000000001</v>
+        <v>-8.458000000000002</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.128899999999994</v>
+        <v>5.236499999999999</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.50959999999999</v>
+        <v>-21.53519999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.008500000000003</v>
+        <v>-9.048100000000003</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.3005</v>
+        <v>-7.573699999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.99220000000001</v>
+        <v>-23.14780000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>4.929199999999997</v>
+        <v>5.095399999999998</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.513</v>
+        <v>10.0448</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,16 +805,16 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>8.771100000000001</v>
+        <v>8.818900000000003</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.074300000000001</v>
+        <v>-8.181899999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>16.54800000000001</v>
+        <v>16.73449999999999</v>
       </c>
     </row>
     <row r="23">
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.013800000000002</v>
+        <v>9.0167</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.24750000000001</v>
+        <v>-22.20979999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.79809999999998</v>
+        <v>-21.87389999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>5.555000000000001</v>
+        <v>5.733699999999996</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.46650000000001</v>
+        <v>17.32090000000001</v>
       </c>
     </row>
     <row r="30">
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.10799999999999</v>
+        <v>-21.09409999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>10.0791</v>
+        <v>9.55150000000001</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.2547</v>
+        <v>17.3256</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.543499999999995</v>
+        <v>-8.223599999999999</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.3101</v>
+        <v>-19.1615</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.139499999999995</v>
+        <v>9.760499999999995</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.854400000000005</v>
+        <v>5.957299999999996</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.55760000000002</v>
+        <v>17.41680000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.330299999999999</v>
+        <v>5.3717</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.088700000000004</v>
+        <v>5.124200000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.0328</v>
+        <v>-22.0399</v>
       </c>
       <c r="B46" t="n">
-        <v>5.483400000000005</v>
+        <v>5.670000000000003</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.340899999999992</v>
+        <v>-7.9853</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.6341</v>
+        <v>17.5662</v>
       </c>
     </row>
     <row r="49">
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.839799999999996</v>
+        <v>4.680599999999994</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.034199999999993</v>
+        <v>-8.245299999999999</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-20.08819999999997</v>
+        <v>-22.14589999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>10.0604</v>
+        <v>5.736599999999997</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.21399999999999</v>
+        <v>-22.20499999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.72180000000002</v>
+        <v>-22.70800000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.9575</v>
+        <v>-22.03550000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.86050000000002</v>
+        <v>15.7085</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.9878</v>
+        <v>-22.06390000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.5026</v>
+        <v>-21.5694</v>
       </c>
       <c r="B66" t="n">
-        <v>4.978599999999997</v>
+        <v>5.059399999999997</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.240199999999999</v>
+        <v>5.249299999999998</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.49450000000001</v>
+        <v>17.71450000000002</v>
       </c>
     </row>
     <row r="69">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.11370000000002</v>
+        <v>18.59860000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.36999999999999</v>
+        <v>-20.34469999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1681,12 +1681,12 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.38020000000001</v>
+        <v>17.25140000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.92709999999998</v>
+        <v>-21.98889999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>10.05880000000001</v>
+        <v>9.904200000000008</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.226599999999999</v>
+        <v>5.583799999999999</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.2359</v>
+        <v>16.3055</v>
       </c>
     </row>
     <row r="88">
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.48040000000002</v>
+        <v>-21.46890000000002</v>
       </c>
       <c r="B92" t="n">
-        <v>4.669199999999996</v>
+        <v>4.608399999999993</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.87140000000002</v>
+        <v>19.10490000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.315199999999995</v>
+        <v>-8.268300000000004</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2080,13 +2080,13 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.700999999999999</v>
+        <v>5.758100000000001</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.460999999999997</v>
+        <v>-8.451000000000001</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.0501</v>
+        <v>-21.98569999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.8932</v>
+        <v>16.89210000000001</v>
       </c>
     </row>
     <row r="102">
